--- a/aeri2018_data_reconciled.xlsx
+++ b/aeri2018_data_reconciled.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mallory\Documents\1SCHOOL\Dr Soyka GA Work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mallory\Documents\1SCHOOL\Dr Soyka GA Work\AERI Grand Challenges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD124EAF-7B73-483F-84C2-8451DDAA95BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B099EE8-BBD4-4C82-A378-13701B22205A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4596" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="140000" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="279">
   <si>
     <t>ID Number</t>
   </si>
@@ -51,9 +46,6 @@
     <t>Community Remembrance for Peace and Justice</t>
   </si>
   <si>
-    <t>Booklet</t>
-  </si>
-  <si>
     <t>The Equal Justice Initiative is a non-profit human rights organization committed to ending mass incarceration and excessive punishment in the United States, to challenging racial and economic injustice, and to protecting basic human rights for the most vulnerable people in American society. In our work, we aim to begin necessary conversations to confront the injustice, inequality, anguish, and suffering that our nation's history of racial and economic injustice created. The Community Remembrance Project intends to bring community members closer to the legacy of our nation's history and to contribute to the effort to build a lasting and more visible memory of racial injustice. We must address oppressive histories by helping communities to honestly and soberly recognize the pain of the past. By reckoning with the truth of racial violence and oppressive policies, communities can begin the necessary work that advances healing.</t>
   </si>
   <si>
@@ -70,13 +62,6 @@
   </si>
   <si>
     <t>Paper</t>
-  </si>
-  <si>
-    <t>This paper gives an overview of my thesis and looks at the development of three Black-led archives in London; the Black Cultural Archives (BCA) based in Brixton, South London; the George Padmore Institute (GPI) in Finsbury Park, North London; and the Huntley collection held at London Metropolitan Archives (HCLMA). The paper takes cultural theorist Stuart Hall’s ‘Constituting an Archive’ as a starting point in thinking about how the archives have developed. In ‘Constituting an Archive,’ Hall highlights the ways in which all archives have a “pre-history”1, and the paper explores the context and ‘pre-history’ that led to the development of these archives. The main narrative running throughout the thesis draws out the political, cultural and intellectual traditions, or ‘pre-history’ that forged the archives, primarily by situating the archives within the framework of the Pan-African movement that began formally at the beginning of the twentieth century. Using the framework of Pan-Africanism.
-The paper is divided into three main parts, the historical and contextual analysis of the development of the archives placed against the backdrop of post-war Black history. The second part of the paper addresses the history of Pan- Africanism and discusses the ways in which the collections are used to contest historical narratives, drawing on Gilliland and Caswell’s discussions on archival imaginaries2 and transformation. The final section addresses the question of funding and future of the organisations.
-Notes:
-1Stuart, Hall, “Constituting an Archive.” Third Text, Spring 2001, p. 89
-2 See Anne J. Gilliland and Michelle Caswell, ‘Records and their imaginaries: imagining the impossible, making possible the imagined’ in Archival Science (2016) 16: 53-75</t>
   </si>
   <si>
     <t>Jamila Ghaddar</t>
@@ -152,9 +137,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>No abstract in program</t>
-  </si>
-  <si>
     <t>Paper Session #3: Panel</t>
   </si>
   <si>
@@ -181,13 +163,6 @@
   </si>
   <si>
     <t>Import of the American trends: Records management methodology and the establishment of the National Archives in postwar Japan</t>
-  </si>
-  <si>
-    <t>This paper explores how the American methodology of recordkeeping was imported and interpreted in Japan after World War II. It focuses on why the destruction of useless papers has emphasized in Japanese government and companies, while preservation of archival records has not given adequate attention.
-During the occupation by the Supreme Commander for the Allied Powers (SCAP), the American system of records management was introduced in Japan. The Japanese were surprised to see the sophisticated filing methods and devices used by the occupation forces. Many business consultants and some government officials thought that such methods should be implemented to improve efficiency and facilitate the recovery of Japan.
-The vertical filing system did not emphasize the destruction of useless papers. However, with the introduction of American trends in records management, destruction became one of the important aspects. Administrative Management Agency of Japan accepted such trends, and promoted the improvement of administrative records management among the government agencies during the 1960s. This campaign was not closely linked to the National Archives establishment program that was conducted simultaneously by the Prime Minister’s Office in Japan. Although each agency studied the American methodologies, which were based on the collaboration of current records management and archives, due to sectionalism among agencies, these methodologies were only partially accepted. As a result, many administrative records which could have archival value were not carefully appraised, and destructed during the campaign.
-The National Archives and other archival repositories in Japan have often been minor repositories that store only a small number of old documents. The situation is changing, but in order to operate the system successfully, more careful study on the context and conditions of recordkeeping is required.
-Therefore, this paper discusses the relationship of recordkeeping systems and organizational culture based on the historical analysis of government agencies and certain companies in Japan.</t>
   </si>
   <si>
     <t>María Montenegro</t>
@@ -292,10 +267,6 @@
   </si>
   <si>
     <t>Evidence and Education: Training Archivists for Human Rights Advocacy</t>
-  </si>
-  <si>
-    <t>Archival records are used as evidence to defend the freedom, rights, and sovereignty of people around the world, yet lawyers and NGO staff working on human rights cases are not trained to locate, validate or interpret records as evidence. Archivists are experts in records, but they receive little training on how to locate and interpret records to support such uses. This panel will examine ways to educate a new generation of practitioners on how to locate and interpret records to help promote human rights and social justice. It will review potential and existing models and propose one in particular -- an archival evidence clinic -- inspired in part by the law school legal clinics that have become ubiquitous in the United States since the 1970s. Such a clinic would partner with law school clinics to teach students how to do specialized records searches and allow them gain course credit while getting supervised practical experience. This kind of clinical collaboration would have the added benefit of teaching law students and archival students how to work together on the shared goal of promoting human rights and social justice. The panelists will offer case studies from their own experience using archival records as evidence, to propose possible areas of training for future archival studies students.
-Anne Gilliland will speak about different models and pedagogies for preparing archivists, lawyers, NGO personnel, and scholars in locating, collating, assessing and presenting records and other forms of archival evidence in support of human rights actions, especially those that engage diasporas or cross institutional and national jurisdictions, and about her course at UCLA that prepares archival students to use records as evidence. Evan Tucker will speak about using the Freedom of Information Act (FOIA) to find evidence that has been withheld by prosecutors in federal criminal trials. He will also discuss ideas for a model of clinical education in archival studies. Ruth Livier will discuss how archival theory provides a framework and a toolkit through which creative writers can make sense of human rights records as it relates to their creative works. By analyzing her own work of fiction, she will highlight how the theory developed around imagined records might help legitimize this fiction as what it aspires to be: a work of advocacy. María Montenegro will look at the U.S. federal tribal recognition project from a records-centered approach. She will discuss ways in which archivists and the implementation of archival conceptions of evidence can assist Native communities in the processes of locating, using, producing, (re)reading, and interpreting records as evidence for tribal sovereignty practices and purposes. Csaba Szillágyi will speak about his work teaching the course “Archives, Evidence and Human Rights” for students of law and human rights at the Central European University in Hungary.</t>
   </si>
   <si>
     <t>Evan Tucker</t>
@@ -344,18 +315,6 @@
     <t>Breaking Rules for Good? How Archivists Manage Privacy in Large-Scale Digitization Projects</t>
   </si>
   <si>
-    <t>Online access to archives has become a top priority of many archival repositories, and an expectation of many researchers. Digitization is one of the most popular methods for increasing access, but these new practices challenge many of archivists’ professional and personal values – namely, “protect[ing] the interests of the donors, individuals, groups, and institutions whose public and private lives and activities are recorded in their holdings,” (Society of American Archivists 2011). Privacy is a complex issue for many archivists, especially given the potential of new technologies like facial recognition and optical character recognition for handwriting to intersect with the digital collections they create.
-Archivists are sensitive to the risk of revealing personal information of donors and third parties in digital collections, as well as patently private information protected by law (Bingo 2011; Behrnd-Klodt 2008). Negligent management of a digital project could expose a living individual to any number of identity- theft related harms or lead the archival repository into a costly legal battle (Gilliland and Wiener 2011). However, the breadth of many archives makes it difficult to scour collections at the item-level before digitization (Ibid., 392). Even if archivists did have the time to analyze collections at the item-level, what constitutes private and/or sensitive information is subjective.
-I begin by reviewing the context of digitization work – how archivists manage large-scale projects, how they understand and internalize their professional responsibility to maintain donor and third-party privacy, and how they accomplish the latter in large-scale digitization projects. Next, I consider interview data collected from 13 staff members from four different archives. Though they all worked on digital collections similar in size and scope, each institutional approach to managing privacy was different. Even within an institution, individual approaches to managing privacy and access could vary - sometimes leading to greater online access, sometimes to redactions or complete restriction of the material online.
-My preliminary findings reveal some troubling similarities, however. The sheer volume of many archives made it impossible to archivists to consider privacy at the item-level. Similarly, the perceived obstacle of managing privacy at the item-level led to many archives delegating the responsibility of maintaining privacy to other actors. Finally, despite these justifications, there is still a deep concern among many archivists that it will become more difficult to maintain individual privacy given new technologies. Access is foregone conclusion, and it is unknown whether their work creating digital collections will support building a broader cultural and historical awareness, or facilitate the slow erosion of individual privacy rights.
-References
-Behrnd-Klodt, Menzi L. 2008. Navigating Legal Issues in Archives. Chicago, IL: Society of American Archivists.
-Bingo, Steven. 2011. “Of Provenance and Privacy: Using Contextual Integrity to Define Third-Party Privacy.” The American Archivist 74(2): 506-521.
-Gilliland, Anne, and Judith A. Wiener. 2011. “Digitizing and Providing Access to Privacy-Sensitive Historical Medical Resources: A Legal and Ethical Overview.” Journal of Electronic Resources in Medical Libraries 8(4): 382-403. 
-Nissenbaum, Helen. Privacy in Context: Technology, Policy, and the Integrity of Social Life. Stanford: Stanford University Press, 2010.
-Society of American Archivists. Approved by the SAA Council 2011. “SAA Core Values Statement and Code of Ethics.” Accessed October 3, 2016. Available at http://www2.archivists.org/statements/saa-core-values-statement- and-code-of-ethics</t>
-  </si>
-  <si>
     <t>Workshop #1: Developing Digital Learning Environments</t>
   </si>
   <si>
@@ -515,25 +474,6 @@
     <t>Archival Love, Letters for Our Future</t>
   </si>
   <si>
-    <t>List of prerequisites
-Open to creative letter writing
-Open to working in an informal collective way Open to writing by hand
-Participants will be provided with three questions to reflect upon, which will inform the letter writing exercise and process. (Once they have signed up)
-Workshop Introduction
-This workshop aims to explore using the tool and methodology of letter writing to think and reflect about our archival futures. The workshop aims to collectively create a collection of letters that reflect on archival knowledge production and sharing as well as a creative approach to preserving this knowledge.
-General structure of workshop (90 mins)
-● Welcome introductions/housekeeping 5 mins (Participants to introduce selves, share pronoun and why they signed up)
-● Introduction to session - background to session and outline 10 mins
-● Small group exercise - explore resources provided (feminist correspondence, extracts) 15 mins
-● Participants come together to discuss/feedback/ and share resource. 10 mins
-● Participants write a letter to ‘Our Archival Future’ 30
-● Participants return to group to share writing. 20 mins
-Anticipated outcome
-A collection of letters from participants
-With consent of the group/individual participants the collection of letters produced will be made into a zine. 
-No. of participants 10 - 15</t>
-  </si>
-  <si>
     <t>Stacy Wood</t>
   </si>
   <si>
@@ -544,10 +484,6 @@
   </si>
   <si>
     <t>Data Lifecycles in 3D Courtroom Animation</t>
-  </si>
-  <si>
-    <t>For decades, computer graphics, courtroom animation and 3D rendering have been big business for litigators. As part of a suite of services including other prepared presentation materials, companies construct representations and reenactments of crime scenes, injuries and disputed
-accident sites in order to construct a seamless narrative for the jury. The process is expensive and relies on culling myriad data sources including ballistics information, coroner’s reports, photographs and witness testimony. In addition to case specific data however, the practice also involves mixing and matching pre-existing data and renderings in order to fill in gaps and approximate. This paper analyzes 3D courtroom animation as both evidentiary record and media spectacle. These 3D animations operate at the nexus of case law governing visual evidence, the rhetorical practices of lawyers and as a unique informational object linking previous cases through rendering tools and reused data and present a challenge for understanding the relationship between media production, case law and data lifecycles.</t>
   </si>
   <si>
     <t>Devan Ray Donaldson</t>
@@ -621,46 +557,10 @@
     <t>Appraisal for Research Data</t>
   </si>
   <si>
-    <t>Prerequisites for participation
-Knowledge of/interest in Appraisal
-Workshop introduction
-The Archives and Records Professionals for Research Data Interest Group (ARPRD) of the Research Data Alliance (RDA) is working on a project to create a short, user friendly guide to appraisal for research data. The audience for this resource includes domain researchers and people and/or organizations with little or no access to archival professionals. This guide would introduce them to the topic of appraisal and point them to existing resources from the Archives and Records Professional community. The guide is being built around 4 themes, as identified by the RDA community: Introduction to appraisal; Developing an appraisal process; Metadata for appraisal; and Disposition of materials. The expected outcome of the project will be in the style of another RDA output, “23 Things: Libraries for Research Data” (L4RD, 2016). This guide is a two page document which provides a list of 23 topic areas and links to free, online resources and tools related to the concept. Long term goals include producing a journal article or white paper on the topic.
-The purpose of this workshop will be to gather input from a community of experts. This includes suggestions of tools or resources for inclusion in the guide, input towards the shaping of the finished product, and recruitment of potential partners for next steps. Attendees will be credited on any finished products.
-Background on RDA and ARPRD:
-RDA is “an international member based organization focused on the development of infrastructure and community activities that reduce barriers to data sharing and exchange, and the acceleration of data driven innovation worldwide” (RDA, 2018). The ARPRD Interest Group within RDA is a space for Archives and Records Professionals to join the RDA community while not necessarily coming from a specific domain representation. One of our goals is to raise the profile of archival principles and practices in relation to data management activities in domain sciences.
-References:
-RDA in a nutshell February 2018 - https://www.rd-alliance.org/about-rda/who-rda.html L4RD’s 23 things http://hdl.handle.net/11304/98d1c4dc-9ae6-47f3-9378-dfbcb0cb30c8
-Workshop activities
-NOTE: Attendees should bring laptops for breakout group participation
-● Introduction to ARPRD and the appraisal task’s current status (5 minutes)
-● Discussion from gathered experts/attendees on the project plan and suggested modifications which includes selected themed areas (10 minutes)
-● Overview of breakout task goals (5 minutes)
-○ Includes examples of tools and resources already collected; complete lists will be provided to breakout groups
-● Break into groups (20 minutes)
-○ Groups will be based on 4 themes identified by ARPRD, with modifications based on community input. ○ Groups will:
-§ Conduct preliminary work/brainstorming to identify relevant tools and resources including suggested level of experience required for use
-§ Document potential sub topic areas under their theme
-§ Provide expert opinions on existing list of tools or resources where available
-● Present results for additional input from other groups (5-10 minutes per group) 
-● Closing and discussion of next steps (10 minutes)
-○ If there is time, we will introduce the other ARPRD task that may be of interest to this community: Digital Preservation.
-Anticipated outcomes
-● Evaluation of ARPRD appraisal task by community of experts.
-● Preliminary collection of tools and resources related to appraisal.
-● Identify potential partners for continuing partnership with ARPRD</t>
-  </si>
-  <si>
     <t>Paper Session #15: Panel</t>
   </si>
   <si>
     <t>The Role of Archives in Addressing Refugee Crises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In its most recent estimates, the United Nations (UN) High Commission for Refugees (UNHCR) states that the numbers of forcibly displaced persons have exceeded more than 65.6 million people worldwide. Displacement crises raise complex interacting issues about nation-states, laws, borders, human rights, citizenship and identity, security, resource allocation and information and communication technologies (ICT). Integral to this complexity, documentation and particularly official records are pervasive and fundamental yet somehow rarely conspicuous.
-Much attention has been focused on official verification of identities and citizenship of displaced persons, vetting them for security risks, reunifying families, and determining whether or not they qualify for asylum and resettlement. However the issues which refugees and other displaced persons confront in accessing, carrying and producing the kinds of authoritative documentation required for these processes remain under-addressed.
-This panel will report on the work of the Records and ICT at the Boundaries of the State: Refugee Needs, Rights and Uses Project based in the UCLA Center for Information as Evidence and the Liverpool University Centre for Archive Studies. The project aims to identify ways in which professionals and agencies involved in archives and record-keeping in affected countries might contribute and collaborate through reoriented professional priorities as well as the implementation of mobile, cloud and block-chain technologies to identifying and locating, protecting, validating, securing and certifying such records. The project also seeks to identify potential policy recommendations supporting specific refugee rights in records, and mechanisms for supporting recordkeeping needs of NGOs working with refugees.
-Each panelist will give a brief summary of a different aspect of this research. The Chair will facilitate a broader audience and panel discussion of the issues that have been presented and synergies ongoing research projects relating to refugees or rights in records for particular groups; as well as additional considerations raised by audience members.
-</t>
   </si>
   <si>
     <t>Ema Čelebić</t>
@@ -778,15 +678,6 @@
     <t>The impact of a parent-child relationship on corporate identity and user perception</t>
   </si>
   <si>
-    <t>Traditionally, libraries and archives have existed as separate entities, developing unique professional identities, organizations, values, and curricula. Despite these differences, the majority of academic institutions in the U.S. have chosen to locate their archives units within the organizational structure, and sometimes physical structure, of the often more established library. When considered from an organizational perspective, archives units existing within libraries share a parent-child relationship with the library. Considering that libraries are often larger than archival units, there is a potential for an imbalance of power and advantage. The power differential between the library and archives unit can impact important decisions including the distribution of resources, development of corporate identity, and ultimately how that identity is communicated and perceived by users.
-This paper explores the physical and virtual dynamics between archives units in academic libraries through the lens of organizational behavior theory and stakeholder theory. Cyert and March’s (1963/2010) widely adopted behavioral theory of the firm provides insight into the negotiation of goals between groups within an organization and suggests why such situations can lead to tensions and a lack of shared identity. Additionally, Freeman’s (1984/2010) stakeholder theory provides insight into the importance of balancing internal decisions, identities, and communication methods with the external environment and the perceptions held by various stakeholders, including the local community, media, competitors, and customers. The paper will share initial results of my dissertation study that triangulates interviews with library and archives administration, intercept surveys with archives users, and a document analysis of corporate identity documents. It will contribute an organizational perspective on how the internal negotiations between library and archives units impact the way these units are presented to and in turn perceived by users. It will additionally offer insight into how user perception may be affected by variation in the way archives units are labeled and included within the organizational structure of academic libraries, which is particularly pertinent as our society move further into the digital realm where library and archival collections are converging more rapidly.
-References
-Cyert, R., &amp; March, J. G. (2010). A behavioral theory of the firm. New Jersey: Prentice Hall, Inc. (Original work
-published 1963.)
-Freeman, R. E. (2010). Strategic management: A stakeholder approach. Cambridge, UK: Cambridge University Press.
-(Original work published 1984.)</t>
-  </si>
-  <si>
     <t>Des Alaniz</t>
   </si>
   <si>
@@ -829,17 +720,6 @@
   </si>
   <si>
     <t>Archives Speaking for Themselves: Modeling Discourse in Traditional and Community Cultural Archives</t>
-  </si>
-  <si>
-    <t>Archives charged with preserving, curating, and stewarding cultural heritage are often acknowledged for their placement in large traditional institutional settings such as governmental agencies, universities, and museums. In the last decade, with the advent of accessible digital repositories and accompanying notions of archival democratization, archival scholarship has shifted toward the study of a more participatory heritage that invites content originators and localized communities to participate in documentation and preservation processes (Flinn 2007, 2010; Roued-Cunliffe and Copeland 2017). However, precise definitions of participatory and community archives are elusive in scholarship due to the diverse nature of archival purposes and foundational characteristics (Flinn 2015). In an attempt to distinguish between community and traditional archival discourses, I examine discursive definition from the point of view of the institution itself. In this project I use public-facing discourses from individual archives, including mission statements and “about” pages from distinct institution and organization websites, to identify differences between larger institutions and community- based cultural heritage archives in the United Kingdom and the United States. By using the direct perspectives of archives as data points, I aim to redistribute the definitional power typically held by scholarly narrative. Particular attention is also given to archives of musical cultural heritage and sound collections in an effort to integrate archival and ethnomusicological approaches to collecting and disseminating heritage objects and knowledge. Part of an ongoing project, this analysis draws on digital humanities methodologies, utilizing text analysis and topic modeling to identify key characteristics in discourse and compare them to oft-used scholarly conceptions of archives and their purposes. This poster summarizes initial results from the project through visual representations of topic affinities and variations. As a whole, this project is intended as an inroad to further understanding of the dynamics between community and traditional archives and as an exploration of digital humanities capabilities in archival studies.
-References:
-Flinn, Andrew. “An Attack on Professionalism and Scholarship? Democratising Archives and the Production of
-Knowledge.” Ariadne, no. 62 (2010). http://www.ariadne.ac.uk/issue62/flinn.
-Flinn, Andrew. “Community Archives.” In Encyclopedia of Archival Science, edited by Luciana Duranti and Patricia C.
-Franks. Lanham: Rowman &amp; Littlefield, 2015.
-Flinn, Andrew. “Community Histories, Community Archives: Some Opportunities and Challenges.” Journal of the
-Society of Archivists 28, no. 2 (October 2007): 151–76.
-Roued-Cunliffe, Henriette, and Andrea Copeland, eds. Participatory Heritage. London: Facet Publishing, 2017.</t>
   </si>
   <si>
     <t>Information Seeking Behavior of Geologists when Searching for Physical Samples</t>
@@ -1050,6 +930,114 @@
   </si>
   <si>
     <t>University of California Los Angeles; [No institution in program.]</t>
+  </si>
+  <si>
+    <t>Program. Available at https://github.com/hsoyka/AERI/blob/master/AERI%202018%20meeting%20program.pdf</t>
+  </si>
+  <si>
+    <t>"This paper gives an overview of my thesis and looks at the development of three Black-led archives in London; the Black Cultural Archives (BCA) based in Brixton, South London; the George Padmore Institute (GPI) in Finsbury Park, North London; and the Huntley collection held at London Metropolitan Archives (HCLMA). The paper takes cultural theorist Stuart Hall’s ‘Constituting an Archive’ as a starting point in thinking about how the archives have developed. In ‘Constituting an Archive,’ Hall highlights the ways in which all archives have a “pre-history”1, and the paper explores the context and ‘pre-history’ that led to the development of these archives. The main narrative running throughout the thesis draws out the political, cultural and intellectual traditions, or ‘pre-history’ that forged the archives, primarily by situating the archives within the framework of the Pan-African movement that began formally at the beginning of the twentieth century. Using the framework of Pan-Africanism.
+The paper is divided into three main parts, the historical and contextual analysis of the development of the archives placed against the backdrop of post-war Black history. The second part of the paper addresses the history of Pan- Africanism and discusses the ways in which the collections are used to contest historical narratives, drawing on Gilliland and Caswell’s discussions on archival imaginaries2 and transformation. The final section addresses the question of funding and future of the organisations.
+Notes:
+1 Stuart, Hall, “Constituting an Archive.” Third Text, Spring 2001, p. 89
+2 See Anne J. Gilliland and Michelle Caswell, ‘Records and their imaginaries: imagining the impossible, making possible the imagined’ in Archival Science (2016) 16: 53-75"</t>
+  </si>
+  <si>
+    <t>This paper explores how the American methodology of recordkeeping was imported and interpreted in Japan after World War II. It focuses on why the destruction of useless papers has emphasized in Japanese government and companies, while preservation of archival records has not given adequate attention.
+During the occupation by the Supreme Commander for the Allied Powers (SCAP), the American system of records management was introduced in Japan. The Japanese were surprised to see the sophisticated filing methods and devices used by the occupation forces. Many business consultants and some government officials thought that such methods should be implemented to improve efficiency and facilitate the recovery of Japan.
+The vertical filing system did not emphasize the destruction of useless papers. However, with the introduction of American trends in records management, destruction became one of the important aspects. Administrative Management Agency of Japan accepted such trends, and promoted the improvement of administrative records management among the government agencies during the 1960s. This campaign was not closely linked to the National Archives establishment program that was conducted simultaneously by the Prime Minister’s Office in Japan. Although each agency studied the American methodologies, which were based on the collaboration of current records management and archives, due to sectionalism among agencies, these methodologies were only partially accepted. As a result, many administrative records which could have archival value were not carefully appraised, and destructed during the campaign.
+The National Archives and other archival repositories in Japan have often been minor repositories that store only a small number of old documents. The situation is changing, but in order to operate the system successfully, more careful study on the context and conditions of recordkeeping is required.
+Therefore, this paper discusses the relationship of recordkeeping systems and organizational culture based on the historical analysis of government agencies and certain companies in Japan.</t>
+  </si>
+  <si>
+    <t>Online access to archives has become a top priority of many archival repositories, and an expectation of many researchers. Digitization is one of the most popular methods for increasing access, but these new practices challenge many of archivists’ professional and personal values – namely, “protect[ing] the interests of the donors, individuals, groups, and institutions whose public and private lives and activities are recorded in their holdings,” (Society of American Archivists 2011). Privacy is a complex issue for many archivists, especially given the potential of new technologies like facial recognition and optical character recognition for handwriting to intersect with the digital collections they create.
+Archivists are sensitive to the risk of revealing personal information of donors and third parties in digital collections, as well as patently private information protected by law (Bingo 2011; Behrnd-Klodt 2008). Negligent management of a digital project could expose a living individual to any number of identity- theft related harms or lead the archival repository into a costly legal battle (Gilliland and Wiener 2011). However, the breadth of many archives makes it difficult to scour collections at the item-level before digitization (Ibid., 392). Even if archivists did have the time to analyze collections at the item-level, what constitutes private and/or sensitive information is subjective.
+I begin by reviewing the context of digitization work – how archivists manage large-scale projects, how they understand and internalize their professional responsibility to maintain donor and third-party privacy, and how they accomplish the latter in large-scale digitization projects. Next, I consider interview data collected from 13 staff members from four different archives. Though they all worked on digital collections similar in size and scope, each institutional approach to managing privacy was different. Even within an institution, individual approaches to managing privacy and access could vary - sometimes leading to greater online access, sometimes to redactions or complete restriction of the material online.
+My preliminary findings reveal some troubling similarities, however. The sheer volume of many archives made it impossible to archivists to consider privacy at the item-level. Similarly, the perceived obstacle of managing privacy at the item-level led to many archives delegating the responsibility of maintaining privacy to other actors. Finally, despite these justifications, there is still a deep concern among many archivists that it will become more difficult to maintain individual privacy given new technologies. Access is foregone conclusion, and it is unknown whether their work creating digital collections will support building a broader cultural and historical awareness, or facilitate the slow erosion of individual privacy rights.
+References
+Behrnd-Klodt, Menzi L. 2008. Navigating Legal Issues in Archives. Chicago, IL: Society of American Archivists.
+Bingo, Steven. 2011. “Of Provenance and Privacy: Using Contextual Integrity to Define Third-Party Privacy.” The American Archivist 74(2): 506-521.
+Gilliland, Anne, and Judith A. Wiener. 2011. “Digitizing and Providing Access to Privacy-Sensitive Historical Medical Resources: A Legal and Ethical Overview.” Journal of Electronic Resources in Medical Libraries 8(4): 382-403. 
+Nissenbaum, Helen. Privacy in Context: Technology, Policy, and the Integrity of Social Life. Stanford: Stanford University Press, 2010.
+Society of American Archivists. Approved by the SAA Council 2011. “SAA Core Values Statement and Code of Ethics.” Accessed October 3, 2016. Available at http://www2.archivists.org/statements/saa-core-values-statement- and-code-of-ethics</t>
+  </si>
+  <si>
+    <t>List of prerequisites
+Open to creative letter writing
+Open to working in an informal collective way 
+Open to writing by hand
+Participants will be provided with three questions to reflect upon, which will inform the letter writing exercise and process. (Once they have signed up)
+Workshop Introduction
+This workshop aims to explore using the tool and methodology of letter writing to think and reflect about our archival futures. The workshop aims to collectively create a collection of letters that reflect on archival knowledge production and sharing as well as a creative approach to preserving this knowledge.
+General structure of workshop (90 mins)
+● Welcome introductions/housekeeping 5 mins (Participants to introduce selves, share pronoun and why they signed up)
+● Introduction to session - background to session and outline 10 mins
+● Small group exercise - explore resources provided (feminist correspondence, extracts) 15 mins
+● Participants come together to discuss/feedback/ and share resource. 10 mins
+● Participants write a letter to ‘Our Archival Future’ 30
+● Participants return to group to share writing. 20 mins
+Anticipated outcome
+A collection of letters from participants
+With consent of the group/individual participants the collection of letters produced will be made into a zine. 
+No. of participants 10 - 15</t>
+  </si>
+  <si>
+    <t>For decades, computer graphics, courtroom animation and 3D rendering have been big business for litigators. As part of a suite of services including other prepared presentation materials, companies construct representations and reenactments of crime scenes, injuries and disputed accident sites in order to construct a seamless narrative for the jury. The process is expensive and relies on culling myriad data sources including ballistics information, coroner’s reports, photographs and witness testimony. In addition to case specific data however, the practice also involves mixing and matching pre-existing data and renderings in order to fill in gaps and approximate. This paper analyzes 3D courtroom animation as both evidentiary record and media spectacle. These 3D animations operate at the nexus of case law governing visual evidence, the rhetorical practices of lawyers and as a unique informational object linking previous cases through rendering tools and reused data and present a challenge for understanding the relationship between media production, case law and data lifecycles.</t>
+  </si>
+  <si>
+    <t>Prerequisites for participation
+Knowledge of/interest in Appraisal
+Workshop introduction
+The Archives and Records Professionals for Research Data Interest Group (ARPRD) of the Research Data Alliance (RDA) is working on a project to create a short, user friendly guide to appraisal for research data. The audience for this resource includes domain researchers and people and/or organizations with little or no access to archival professionals. This guide would introduce them to the topic of appraisal and point them to existing resources from the Archives and Records Professional community. The guide is being built around 4 themes, as identified by the RDA community: Introduction to appraisal; Developing an appraisal process; Metadata for appraisal; and Disposition of materials. The expected outcome of the project will be in the style of another RDA output, “23 Things: Libraries for Research Data” (L4RD, 2016). This guide is a two page document which provides a list of 23 topic areas and links to free, online resources and tools related to the concept. Long term goals include producing a journal article or white paper on the topic.
+The purpose of this workshop will be to gather input from a community of experts. This includes suggestions of tools or resources for inclusion in the guide, input towards the shaping of the finished product, and recruitment of potential partners for next steps. Attendees will be credited on any finished products.
+Background on RDA and ARPRD:
+RDA is “an international member based organization focused on the development of infrastructure and community activities that reduce barriers to data sharing and exchange, and the acceleration of data driven innovation worldwide” (RDA, 2018). The ARPRD Interest Group within RDA is a space for Archives and Records Professionals to join the RDA community while not necessarily coming from a specific domain representation. One of our goals is to raise the profile of archival principles and practices in relation to data management activities in domain sciences.
+References:
+RDA in a nutshell February 2018 - https://www.rd-alliance.org/about-rda/who-rda.html L4RD’s 23 things http://hdl.handle.net/11304/98d1c4dc-9ae6-47f3-9378-dfbcb0cb30c8
+Workshop activities
+NOTE: Attendees should bring laptops for breakout group participation
+● Introduction to ARPRD and the appraisal task’s current status (5 minutes)
+● Discussion from gathered experts/attendees on the project plan and suggested modifications which includes selected themed areas (10 minutes)
+● Overview of breakout task goals (5 minutes)
+○ Includes examples of tools and resources already collected; complete lists will be provided to breakout groups
+● Break into groups (20 minutes)
+○ Groups will be based on 4 themes identified by ARPRD, with modifications based on community input. 
+○ Groups will:
+§ Conduct preliminary work/brainstorming to identify relevant tools and resources including suggested level of experience required for use
+§ Document potential sub topic areas under their theme
+§ Provide expert opinions on existing list of tools or resources where available
+● Present results for additional input from other groups (5-10 minutes per group) 
+● Closing and discussion of next steps (10 minutes)
+○ If there is time, we will introduce the other ARPRD task that may be of interest to this community: Digital Preservation.
+Anticipated outcomes
+● Evaluation of ARPRD appraisal task by community of experts.
+● Preliminary collection of tools and resources related to appraisal.
+● Identify potential partners for continuing partnership with ARPRD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In its most recent estimates, the United Nations (UN) High Commission for Refugees (UNHCR) states that the numbers of forcibly displaced persons have exceeded more than 65.6 million people worldwide. Displacement crises raise complex interacting issues about nation-states, laws, borders, human rights, citizenship and identity, security, resource allocation and information and communication technologies (ICT). Integral to this complexity, documentation and particularly official records are pervasive and fundamental yet somehow rarely conspicuous.
+Much attention has been focused on official verification of identities and citizenship of displaced persons, vetting them for security risks, reunifying families, and determining whether or not they qualify for asylum and resettlement. However the issues which refugees and other displaced persons confront in accessing, carrying and producing the kinds of authoritative documentation required for these processes remain under-addressed.
+This panel will report on the work of the Records and ICT at the Boundaries of the State: Refugee Needs, Rights and Uses Project based in the UCLA Center for Information as Evidence and the Liverpool University Centre for Archive Studies. The project aims to identify ways in which professionals and agencies involved in archives and record-keeping in affected countries might contribute and collaborate through reoriented professional priorities as well as the implementation of mobile, cloud and block-chain technologies to identifying and locating, protecting, validating, securing and certifying such records. The project also seeks to identify potential policy recommendations supporting specific refugee rights in records, and mechanisms for supporting recordkeeping needs of NGOs working with refugees.
+Each panelist will give a brief summary of a different aspect of this research. The Chair will facilitate a broader audience and panel discussion of the issues that have been presented and synergies ongoing research projects relating to refugees or rights in records for particular groups; as well as additional considerations raised by audience members.
+</t>
+  </si>
+  <si>
+    <t>Traditionally, libraries and archives have existed as separate entities, developing unique professional identities, organizations, values, and curricula. Despite these differences, the majority of academic institutions in the U.S. have chosen to locate their archives units within the organizational structure, and sometimes physical structure, of the often more established library. When considered from an organizational perspective, archives units existing within libraries share a parent-child relationship with the library. Considering that libraries are often larger than archival units, there is a potential for an imbalance of power and advantage. The power differential between the library and archives unit can impact important decisions including the distribution of resources, development of corporate identity, and ultimately how that identity is communicated and perceived by users.
+This paper explores the physical and virtual dynamics between archives units in academic libraries through the lens of organizational behavior theory and stakeholder theory. Cyert and March’s (1963/2010) widely adopted behavioral theory of the firm provides insight into the negotiation of goals between groups within an organization and suggests why such situations can lead to tensions and a lack of shared identity. Additionally, Freeman’s (1984/2010) stakeholder theory provides insight into the importance of balancing internal decisions, identities, and communication methods with the external environment and the perceptions held by various stakeholders, including the local community, media, competitors, and customers. The paper will share initial results of my dissertation study that triangulates interviews with library and archives administration, intercept surveys with archives users, and a document analysis of corporate identity documents. It will contribute an organizational perspective on how the internal negotiations between library and archives units impact the way these units are presented to and in turn perceived by users. It will additionally offer insight into how user perception may be affected by variation in the way archives units are labeled and included within the organizational structure of academic libraries, which is particularly pertinent as our society move further into the digital realm where library and archival collections are converging more rapidly.
+References
+Cyert, R., &amp; March, J. G. (2010). A behavioral theory of the firm. New Jersey: Prentice Hall, Inc. (Original work published 1963.)
+Freeman, R. E. (2010). Strategic management: A stakeholder approach. Cambridge, UK: Cambridge University Press. (Original work published 1984.)</t>
+  </si>
+  <si>
+    <t>Archives charged with preserving, curating, and stewarding cultural heritage are often acknowledged for their placement in large traditional institutional settings such as governmental agencies, universities, and museums. In the last decade, with the advent of accessible digital repositories and accompanying notions of archival democratization, archival scholarship has shifted toward the study of a more participatory heritage that invites content originators and localized communities to participate in documentation and preservation processes (Flinn 2007, 2010; Roued-Cunliffe and Copeland 2017). However, precise definitions of participatory and community archives are elusive in scholarship due to the diverse nature of archival purposes and foundational characteristics (Flinn 2015). In an attempt to distinguish between community and traditional archival discourses, I examine discursive definition from the point of view of the institution itself. In this project I use public-facing discourses from individual archives, including mission statements and “about” pages from distinct institution and organization websites, to identify differences between larger institutions and community- based cultural heritage archives in the United Kingdom and the United States. By using the direct perspectives of archives as data points, I aim to redistribute the definitional power typically held by scholarly narrative. Particular attention is also given to archives of musical cultural heritage and sound collections in an effort to integrate archival and ethnomusicological approaches to collecting and disseminating heritage objects and knowledge. Part of an ongoing project, this analysis draws on digital humanities methodologies, utilizing text analysis and topic modeling to identify key characteristics in discourse and compare them to oft-used scholarly conceptions of archives and their purposes. This poster summarizes initial results from the project through visual representations of topic affinities and variations. As a whole, this project is intended as an inroad to further understanding of the dynamics between community and traditional archives and as an exploration of digital humanities capabilities in archival studies.
+References:
+Flinn, Andrew. “An Attack on Professionalism and Scholarship? Democratising Archives and the Production of Knowledge.” Ariadne, no. 62 (2010). http://www.ariadne.ac.uk/issue62/flinn.
+Flinn, Andrew. “Community Archives.” In Encyclopedia of Archival Science, edited by Luciana Duranti and Patricia C. Franks. Lanham: Rowman &amp; Littlefield, 2015.
+Flinn, Andrew. “Community Histories, Community Archives: Some Opportunities and Challenges.” Journal of the Society of Archivists 28, no. 2 (October 2007): 151–76.
+Roued-Cunliffe, Henriette, and Andrea Copeland, eds. Participatory Heritage. London: Facet Publishing, 2017.</t>
+  </si>
+  <si>
+    <t>Archival records are used as evidence to defend the freedom, rights, and sovereignty of people around the world, yet lawyers and NGO staff working on human rights cases are not trained to locate, validate or interpret records as evidence. Archivists are experts in records, but they receive little training on how to locate and interpret records to support such uses. This panel will examine ways to educate a new generation of practitioners on how to locate and interpret records to help promote human rights and social justice. It will review potential and existing models and propose one in particular -- an archival evidence clinic -- inspired in part by the law school legal clinics that have become ubiquitous in the United States since the 1970s. Such a clinic would partner with law school clinics to teach students how to do specialized records searches and allow them gain course credit while getting supervised practical experience. This kind of clinical collaboration would have the added benefit of teaching law students and archival students how to work together on the shared goal of promoting human rights and social justice. The panelists will offer case studies from their own experience using archival records as evidence, to propose possible areas of training for future archival studies students.
+Panelists: Anne Gilliland will speak about different models and pedagogies for preparing archivists, lawyers, NGO personnel, and scholars in locating, collating, assessing and presenting records and other forms of archival evidence in support of human rights actions, especially those that engage diasporas or cross institutional and national jurisdictions, and about her course at UCLA that prepares archival students to use records as evidence. Evan Tucker will speak about using the Freedom of Information Act (FOIA) to find evidence that has been withheld by prosecutors in federal criminal trials. He will also discuss ideas for a model of clinical education in archival studies. Ruth Livier will discuss how archival theory provides a framework and a toolkit through which creative writers can make sense of human rights records as it relates to their creative works. By analyzing her own work of fiction, she will highlight how the theory developed around imagined records might help legitimize this fiction as what it aspires to be: a work of advocacy. María Montenegro will look at the U.S. federal tribal recognition project from a records-centered approach. She will discuss ways in which archivists and the implementation of archival conceptions of evidence can assist Native communities in the processes of locating, using, producing, (re)reading, and interpreting records as evidence for tribal sovereignty practices and purposes. Csaba Szillágyi will speak about his work teaching the course “Archives, Evidence and Human Rights” for students of law and human rights at the Central European University in Hungary.</t>
   </si>
 </sst>
 </file>
@@ -1138,7 +1126,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1150,6 +1138,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1505,9 +1499,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1526,10 +1520,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1544,10 +1538,10 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>236</v>
+        <v>223</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="202.8" x14ac:dyDescent="0.3">
@@ -1561,22 +1555,22 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>8</v>
+        <v>262</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -1584,28 +1578,28 @@
         <v>2018002</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>269</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -1613,28 +1607,28 @@
         <v>2018003</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -1642,28 +1636,28 @@
         <v>2018004</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -1671,28 +1665,28 @@
         <v>2018005</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="218.4" x14ac:dyDescent="0.3">
@@ -1700,28 +1694,28 @@
         <v>2018006</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -1729,28 +1723,28 @@
         <v>2018007</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -1758,28 +1752,28 @@
         <v>2018008</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
@@ -1787,28 +1781,28 @@
         <v>2018009</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>37</v>
+        <v>260</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="358.8" x14ac:dyDescent="0.3">
@@ -1816,28 +1810,28 @@
         <v>2018010</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="327.60000000000002" x14ac:dyDescent="0.3">
@@ -1845,28 +1839,28 @@
         <v>2018011</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -1874,28 +1868,28 @@
         <v>2018012</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>270</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -1903,28 +1897,28 @@
         <v>2018013</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -1932,28 +1926,28 @@
         <v>2018014</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="G15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -1961,28 +1955,28 @@
         <v>2018015</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="G16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -1990,28 +1984,28 @@
         <v>2018016</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2019,28 +2013,28 @@
         <v>2018017</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="G18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="327.60000000000002" x14ac:dyDescent="0.3">
@@ -2048,57 +2042,57 @@
         <v>2018018</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>2018019</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>272</v>
-      </c>
       <c r="G20" s="2" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>8</v>
+        <v>262</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="234" x14ac:dyDescent="0.3">
@@ -2106,28 +2100,28 @@
         <v>2018020</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="G21" s="2" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>8</v>
+        <v>262</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2135,28 +2129,28 @@
         <v>2018021</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>278</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2164,28 +2158,28 @@
         <v>2018022</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>278</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2193,28 +2187,28 @@
         <v>2018023</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>278</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2222,28 +2216,28 @@
         <v>2018024</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>278</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2251,28 +2245,28 @@
         <v>2018025</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>278</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2280,28 +2274,28 @@
         <v>2018026</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2309,28 +2303,28 @@
         <v>2018027</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2338,28 +2332,28 @@
         <v>2018028</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>90</v>
+        <v>271</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2367,28 +2361,28 @@
         <v>2018029</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
@@ -2396,28 +2390,28 @@
         <v>2018030</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="249.6" x14ac:dyDescent="0.3">
@@ -2425,28 +2419,28 @@
         <v>2018031</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2454,28 +2448,28 @@
         <v>2018032</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2483,28 +2477,28 @@
         <v>2018033</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="405.6" x14ac:dyDescent="0.3">
@@ -2512,28 +2506,28 @@
         <v>2018034</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="G35" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2541,28 +2535,28 @@
         <v>2018035</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="390" x14ac:dyDescent="0.3">
@@ -2570,28 +2564,28 @@
         <v>2018036</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="358.8" x14ac:dyDescent="0.3">
@@ -2599,28 +2593,28 @@
         <v>2018037</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="280.8" x14ac:dyDescent="0.3">
@@ -2628,28 +2622,28 @@
         <v>2018038</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="G39" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="140.4" x14ac:dyDescent="0.3">
@@ -2657,28 +2651,28 @@
         <v>2018039</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>8</v>
+        <v>262</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="202.8" x14ac:dyDescent="0.3">
@@ -2686,28 +2680,28 @@
         <v>2018040</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>8</v>
+        <v>262</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2715,28 +2709,28 @@
         <v>2018041</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>141</v>
+        <v>272</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="249.6" x14ac:dyDescent="0.3">
@@ -2744,28 +2738,28 @@
         <v>2018042</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>146</v>
+        <v>273</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="280.8" x14ac:dyDescent="0.3">
@@ -2773,28 +2767,28 @@
         <v>2018043</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2802,28 +2796,28 @@
         <v>2018044</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="296.39999999999998" x14ac:dyDescent="0.3">
@@ -2831,28 +2825,28 @@
         <v>2018045</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
@@ -2860,28 +2854,28 @@
         <v>2018046</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>259</v>
-      </c>
       <c r="D47" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="202.8" x14ac:dyDescent="0.3">
@@ -2889,28 +2883,28 @@
         <v>2018047</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2918,28 +2912,28 @@
         <v>2018048</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>168</v>
+        <v>274</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2947,28 +2941,28 @@
         <v>2018049</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>275</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2976,28 +2970,28 @@
         <v>2018050</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="234" x14ac:dyDescent="0.3">
@@ -3005,28 +2999,28 @@
         <v>2018051</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3034,28 +3028,28 @@
         <v>2018052</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3063,28 +3057,28 @@
         <v>2018053</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3092,28 +3086,28 @@
         <v>2018054</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="280.8" x14ac:dyDescent="0.3">
@@ -3121,28 +3115,28 @@
         <v>2018055</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3150,28 +3144,28 @@
         <v>2018056</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="390" x14ac:dyDescent="0.3">
@@ -3179,28 +3173,28 @@
         <v>2018057</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3208,57 +3202,57 @@
         <v>2018058</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>203</v>
+        <v>192</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>276</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>2018059</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="327.60000000000002" x14ac:dyDescent="0.3">
@@ -3266,28 +3260,28 @@
         <v>2018060</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="249.6" x14ac:dyDescent="0.3">
@@ -3295,28 +3289,28 @@
         <v>2018061</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3324,28 +3318,28 @@
         <v>2018062</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>218</v>
+      <c r="F63" s="6" t="s">
+        <v>277</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="358.8" x14ac:dyDescent="0.3">
@@ -3353,28 +3347,28 @@
         <v>2018063</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="140.4" x14ac:dyDescent="0.3">
@@ -3382,28 +3376,28 @@
         <v>2018064</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3411,28 +3405,28 @@
         <v>2018065</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3440,28 +3434,28 @@
         <v>2018066</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>8</v>
+        <v>263</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3469,37 +3463,32 @@
         <v>2018067</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>8</v>
+        <v>262</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/aeri2018_data_reconciled.xlsx
+++ b/aeri2018_data_reconciled.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10114"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mallory\Documents\1SCHOOL\Dr Soyka GA Work\AERI Grand Challenges\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HeatherSoyka/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B099EE8-BBD4-4C82-A378-13701B22205A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{456E958B-1922-5147-9A84-90DDE3AE4879}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4596" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="560" yWindow="460" windowWidth="21780" windowHeight="20660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$68</definedName>
+  </definedNames>
+  <calcPr calcId="140000"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="278">
   <si>
     <t>ID Number</t>
   </si>
@@ -82,9 +90,6 @@
     <t>Dalena Hunter</t>
   </si>
   <si>
-    <t>UCLA</t>
-  </si>
-  <si>
     <t>Amnesia, Decolonization and Repair: Three Case Studies in Archival Legacies: ‘of men and races’: Archival development for national liberation and heritage dignity, UNESCO in (through) Lebanon</t>
   </si>
   <si>
@@ -193,11 +198,6 @@
     <t>Bounded Data Sharing and Broad Access</t>
   </si>
   <si>
-    <t xml:space="preserve">All archival holdings related to human society and behavior fall along a disclosure risk continuum. In theory, this can be calculated based on each analytic dataset’s unique combination of factors including subject matter sensitivity, study population characteristics, sample size, proprietary concerns, legal or statutory requirements, etc. In practice, however, we are still learning to build tools that are sufficiently sensitive to estimate this risk with an acceptably-high level of confidence. Data archives and repositories strive to create access policies and procedures that balance the scientific necessity of data sharing with the ethical and often legal requirements of data protection and privacy.
-Recently, across and beyond the social and natural sciences, recommendations have been put forth to make transparent the datasets and decision processes used to inform our human-built world. While usually well-intentioned, they risk triggering a reactionary construction of barriers in response to tangible harms left unprotected by blanket and/or fully open data access policies. In this paper, we will describe ICPSR’s Researcher Credentialing model, as it can be used to locate a given analytic dataset’s position on a theoretical disclosure risk/scientific reward continuum. We argue that intelligently conceived and transparent boundaries are in fact necessary to allow for the broadest-possible responsible access. ICPSR’s project identifies combinations of dissemination method, minimum user characteristics, and assessed dataset-specific disclosure risk level that correspond directly to the points on the continuum that most efficiently maximize research potential and minimize risk of harm. This approach draws on our analysis of restricted data access protocols and “risk versus access” decisions of 23 data repositories to develop the design of the pilot credentialing system. We will also discuss practical ways that repositories and archives can evaluate their data assets and structure their dissemination procedures to leverage a community-normed understanding of responsible data stewardship.
-</t>
-  </si>
-  <si>
     <t>Certain and Uncertain Factors in Records Opening: A Comparative Perspective Between the U.S. and China</t>
   </si>
   <si>
@@ -214,16 +214,6 @@
   </si>
   <si>
     <t>Layers of Meaning in the Participatory Archive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participatory archives exist in the gray area between traditional archival institutions and autonomous communities of record-keepers. They are not community controlled and therefore not community archives, yet they require significant contributions and participation by community members. This participation goes beyond material donation and into archival description, appraisal, as well as a level of control that is not usually present in traditional archives. Huvila (2008) states that “a participatory archive pursues transparency through participation and not its opposite. Inclusion and greater participation is supposed to reveal a diversity of motivations, viewpoints, arguments and counterarguments, which becomes transparency when a critical mass is attained” (p. 25).
-In order to explore the diversity of motivations and viewpoints that Huvila points to, this paper will focus on the Mass. Memories Road Show (MMRS), a participatory archive project run through UMass Boston’s University Archives and Special Collections department. Through one- day road show events which are organized by UMass Boston and the individual communities hosting the road shows, MMRS works to preserve community histories throughout Massachusetts. During MMRS events, participants contribute objects (usually family photographs) and oral histories, both of which are then digitized and preserved. To participate in the project, individual communities create applications in which they pledge and outline community participation in planning and running their individual events. A stated goal of the project is to “bring together local residents of all ages, ethnicities, races and backgrounds in lively and thoughtfully planned public events that celebrate each person's family history and contribution to the community—whether they have lived there for generations or are recently arrived” (Mass. Memories, 2016, p. 4).
-Using the framework of Bastian’s community of records, this project will include analysis of materials created by the MMRS staff, the application materials created by individual community organizers, and the oral history interviews of individual contributors (Bastian, 2003, p. 5). This analysis can shed light on the diversity of motivations from community organizers, individual contributors, and staff of the University Archives and Special Collections as they all create different layers of meaning and memory through their participation in MMRS events.
-References:
-Bastian, J. A. (2003). Owning memory: how a Caribbean community lost its archives and found its history. Westport, CT: Libraries Unlimited.
-Huvila, I. (2008). Participatory archive: towards decentralised curation, radical user orientation, and broader contextualisation of records management. Archival Science, 8(1), 15-36.
-The Mass. Memories Road Show. (2016). The Mass. Memories Road Show Project Handbook: A Planning Guide for Local Communities. Boston, MA: University of Massachusetts Boston, Joseph P. Healey Library.
-</t>
   </si>
   <si>
     <t>Joanne Evans</t>
@@ -388,9 +378,6 @@
     <t>The Archival Bridge Back to Chinese Ancient Villages: A Case Study of Digital Gaoqian</t>
   </si>
   <si>
-    <t>The existing ways of protecting ancient villages in China mainly include commercial development and building repair, which to a certain extent would destroy the villages’ original appearance and culture core. How to protect the original villages in the digital world with the minimum damage or omission? To answer the question, the paper shows a case study of Gao Qian based on the Digital Protection and Inheritance of Historical and Cultural Villages Project in China. Gaoqian was built at the end of the Ming Dynasty with 3,300 villagers, most of whom share a single surname -- “Wu” -- and are related to each other. The family stories and the whole family tree were recorded in the Genealogy of the Wu Family. There are eight courtyard houses in the village making it one of the most intact residential building complex in southern China. This project analyzes the culture resource system of Gaoqian through archival collection, oral history interviewing and photographing, based on which the digital resource ontology is constructed and the Gaoqian Digital Resource Database is built. In the database, all the data can be long-term preserved and developed into visual products for the public. One hand, the project takes advantage of advanced technologies in the digital humanities, including ontology construction, 3D modeling and panoramic roaming. On the other hand, the project breaks through the limitation of mainstream memory of Gaoqian based on the official archives, trying to reconstruct the more authentic history of Gaoqian from the perspective of the community archives and public history. This paper introduces the basic design and methods of the digital protection and presentation of Gaoqian. It shows a case of the establishment of a digital memorial space for ancient villages beyond the traditional limits of physical protection, in which all the memorial elements including the villagers and their lives, the buildings and their history, and the heritages and their context can be recorded and presented.</t>
-  </si>
-  <si>
     <t>Patricia Galloway</t>
   </si>
   <si>
@@ -539,9 +526,6 @@
     <t>Anastasia S. Weigle</t>
   </si>
   <si>
-    <t>Workshop#3: Genealogical Societies and Library Archives: Building a Collaborative Partnership</t>
-  </si>
-  <si>
     <t>Genealogical Societies and Library Archives: Building a Collaborative Partnership</t>
   </si>
   <si>
@@ -549,9 +533,6 @@
   </si>
   <si>
     <t>Sarah Ramdeen</t>
-  </si>
-  <si>
-    <t>Workshop#4: Appraisal for Research Data</t>
   </si>
   <si>
     <t>Appraisal for Research Data</t>
@@ -762,14 +743,6 @@
   </si>
   <si>
     <t xml:space="preserve">Measuring what matters: developing an AERI framework for assessing research quality and impact </t>
-  </si>
-  <si>
-    <t xml:space="preserve">As we approach the end of the second decade of the 21st century there is increasing pressure on researchers, disciplines and universities to be able to quantify the quality and impact of their research. National and international rankings of university and subject areas and other metrics weigh on the minds of university administrators as they look to compete in a globalised marketplace for research and education. National frameworks for research evaluation have emerged, such as Excellence in Research Australia (ERA), Research Excellence Framework (REF) in the UK, etc. to benchmark and account for public investment in research, and guide research funding allocations. And in promotion, tenure and funding applications academics are asked to provide indicators for use by those outside their discipline to judge the quality and impact of their research.
-However, as Professor James Wilsdon, chair of a 2015 UK Review of the Role of Metrics in Research Assessment and Management, writes:
-'Some of the most precious qualities of academic culture resist simple quantification, and individual indicators can struggle to do justice to the richness and plurality of our research. Too often, poorly designed evaluation criteria are “dominating minds, distorting behaviour and determining careers.”' (Wilsdon et al., 2015).
-In that report the notion of responsible metrics is introduced that are robust, transparent, reflexive, reflect and support diversity and plurality, and work to support (not supplant) qualitative, expert assessment.
-Archival and recordkeeping studies is a rapidly developing, but often poorly understood field within academia and this can make grant applications, promotion and/or tenure reviews, etc. that rely upon such metrics difficult. The AERI Journal Ranking List was developed at the first AERI institute in 2009 to provide our community's own assessment on journal quality and impact for use research quality assessment processes. A decade later, this list needs updating to take account of the increased number of publication venues (e.g., new journals, refereed conference proceedings), English-language bias, and important critiques of simplistic citation metric approaches. In this interactive plenary session we will revisit the AERI Journal Ranking List within the context of a broader discussion of how we might move towards the development of a framework for research quality and impact that will further the growth and development of archival and recordkeeping research, strengthen the placement of the discipline within the Academy, and encourage diversity, innovation and transdisciplinarity in research collaborations.
-</t>
   </si>
   <si>
     <t>Presenter</t>
@@ -930,16 +903,6 @@
   </si>
   <si>
     <t>University of California Los Angeles; [No institution in program.]</t>
-  </si>
-  <si>
-    <t>Program. Available at https://github.com/hsoyka/AERI/blob/master/AERI%202018%20meeting%20program.pdf</t>
-  </si>
-  <si>
-    <t>"This paper gives an overview of my thesis and looks at the development of three Black-led archives in London; the Black Cultural Archives (BCA) based in Brixton, South London; the George Padmore Institute (GPI) in Finsbury Park, North London; and the Huntley collection held at London Metropolitan Archives (HCLMA). The paper takes cultural theorist Stuart Hall’s ‘Constituting an Archive’ as a starting point in thinking about how the archives have developed. In ‘Constituting an Archive,’ Hall highlights the ways in which all archives have a “pre-history”1, and the paper explores the context and ‘pre-history’ that led to the development of these archives. The main narrative running throughout the thesis draws out the political, cultural and intellectual traditions, or ‘pre-history’ that forged the archives, primarily by situating the archives within the framework of the Pan-African movement that began formally at the beginning of the twentieth century. Using the framework of Pan-Africanism.
-The paper is divided into three main parts, the historical and contextual analysis of the development of the archives placed against the backdrop of post-war Black history. The second part of the paper addresses the history of Pan- Africanism and discusses the ways in which the collections are used to contest historical narratives, drawing on Gilliland and Caswell’s discussions on archival imaginaries2 and transformation. The final section addresses the question of funding and future of the organisations.
-Notes:
-1 Stuart, Hall, “Constituting an Archive.” Third Text, Spring 2001, p. 89
-2 See Anne J. Gilliland and Michelle Caswell, ‘Records and their imaginaries: imagining the impossible, making possible the imagined’ in Archival Science (2016) 16: 53-75"</t>
   </si>
   <si>
     <t>This paper explores how the American methodology of recordkeeping was imported and interpreted in Japan after World War II. It focuses on why the destruction of useless papers has emphasized in Japanese government and companies, while preservation of archival records has not given adequate attention.
@@ -1036,8 +999,47 @@
 Roued-Cunliffe, Henriette, and Andrea Copeland, eds. Participatory Heritage. London: Facet Publishing, 2017.</t>
   </si>
   <si>
-    <t>Archival records are used as evidence to defend the freedom, rights, and sovereignty of people around the world, yet lawyers and NGO staff working on human rights cases are not trained to locate, validate or interpret records as evidence. Archivists are experts in records, but they receive little training on how to locate and interpret records to support such uses. This panel will examine ways to educate a new generation of practitioners on how to locate and interpret records to help promote human rights and social justice. It will review potential and existing models and propose one in particular -- an archival evidence clinic -- inspired in part by the law school legal clinics that have become ubiquitous in the United States since the 1970s. Such a clinic would partner with law school clinics to teach students how to do specialized records searches and allow them gain course credit while getting supervised practical experience. This kind of clinical collaboration would have the added benefit of teaching law students and archival students how to work together on the shared goal of promoting human rights and social justice. The panelists will offer case studies from their own experience using archival records as evidence, to propose possible areas of training for future archival studies students.
+    <t>Workshop #3: Genealogical Societies and Library Archives: Building a Collaborative Partnership</t>
+  </si>
+  <si>
+    <t>Workshop #4: Appraisal for Research Data</t>
+  </si>
+  <si>
+    <t>This paper gives an overview of my thesis and looks at the development of three Black-led archives in London; the Black Cultural Archives (BCA) based in Brixton, South London; the George Padmore Institute (GPI) in Finsbury Park, North London; and the Huntley collection held at London Metropolitan Archives (HCLMA). The paper takes cultural theorist Stuart Hall’s ‘Constituting an Archive’ as a starting point in thinking about how the archives have developed. In ‘Constituting an Archive,’ Hall highlights the ways in which all archives have a “pre-history”1, and the paper explores the context and ‘pre-history’ that led to the development of these archives. The main narrative running throughout the thesis draws out the political, cultural and intellectual traditions, or ‘pre-history’ that forged the archives, primarily by situating the archives within the framework of the Pan-African movement that began formally at the beginning of the twentieth century. Using the framework of Pan-Africanism.
+The paper is divided into three main parts, the historical and contextual analysis of the development of the archives placed against the backdrop of post-war Black history. The second part of the paper addresses the history of Pan- Africanism and discusses the ways in which the collections are used to contest historical narratives, drawing on Gilliland and Caswell’s discussions on archival imaginaries2 and transformation. The final section addresses the question of funding and future of the organisations.
+Notes:
+1 Stuart, Hall, “Constituting an Archive.” Third Text, Spring 2001, p. 89
+2 See Anne J. Gilliland and Michelle Caswell, ‘Records and their imaginaries: imagining the impossible, making possible the imagined’ in Archival Science (2016) 16: 53-75"</t>
+  </si>
+  <si>
+    <t>All archival holdings related to human society and behavior fall along a disclosure risk continuum. In theory, this can be calculated based on each analytic dataset’s unique combination of factors including subject matter sensitivity, study population characteristics, sample size, proprietary concerns, legal or statutory requirements, etc. In practice, however, we are still learning to build tools that are sufficiently sensitive to estimate this risk with an acceptably-high level of confidence. Data archives and repositories strive to create access policies and procedures that balance the scientific necessity of data sharing with the ethical and often legal requirements of data protection and privacy.
+Recently, across and beyond the social and natural sciences, recommendations have been put forth to make transparent the datasets and decision processes used to inform our human-built world. While usually well-intentioned, they risk triggering a reactionary construction of barriers in response to tangible harms left unprotected by blanket and/or fully open data access policies. In this paper, we will describe ICPSR’s Researcher Credentialing model, as it can be used to locate a given analytic dataset’s position on a theoretical disclosure risk/scientific reward continuum. We argue that intelligently conceived and transparent boundaries are in fact necessary to allow for the broadest-possible responsible access. ICPSR’s project identifies combinations of dissemination method, minimum user characteristics, and assessed dataset-specific disclosure risk level that correspond directly to the points on the continuum that most efficiently maximize research potential and minimize risk of harm. This approach draws on our analysis of restricted data access protocols and “risk versus access” decisions of 23 data repositories to develop the design of the pilot credentialing system. We will also discuss practical ways that repositories and archives can evaluate their data assets and structure their dissemination procedures to leverage a community-normed understanding of responsible data stewardship.</t>
+  </si>
+  <si>
+    <t>Participatory archives exist in the gray area between traditional archival institutions and autonomous communities of record-keepers. They are not community controlled and therefore not community archives, yet they require significant contributions and participation by community members. This participation goes beyond material donation and into archival description, appraisal, as well as a level of control that is not usually present in traditional archives. Huvila (2008) states that “a participatory archive pursues transparency through participation and not its opposite. Inclusion and greater participation is supposed to reveal a diversity of motivations, viewpoints, arguments and counterarguments, which becomes transparency when a critical mass is attained” (p. 25).
+In order to explore the diversity of motivations and viewpoints that Huvila points to, this paper will focus on the Mass. Memories Road Show (MMRS), a participatory archive project run through UMass Boston’s University Archives and Special Collections department. Through one- day road show events which are organized by UMass Boston and the individual communities hosting the road shows, MMRS works to preserve community histories throughout Massachusetts. During MMRS events, participants contribute objects (usually family photographs) and oral histories, both of which are then digitized and preserved. To participate in the project, individual communities create applications in which they pledge and outline community participation in planning and running their individual events. A stated goal of the project is to “bring together local residents of all ages, ethnicities, races and backgrounds in lively and thoughtfully planned public events that celebrate each person's family history and contribution to the community—whether they have lived there for generations or are recently arrived” (Mass. Memories, 2016, p. 4).
+Using the framework of Bastian’s community of records, this project will include analysis of materials created by the MMRS staff, the application materials created by individual community organizers, and the oral history interviews of individual contributors (Bastian, 2003, p. 5). This analysis can shed light on the diversity of motivations from community organizers, individual contributors, and staff of the University Archives and Special Collections as they all create different layers of meaning and memory through their participation in MMRS events.
+References:
+Bastian, J. A. (2003). Owning memory: how a Caribbean community lost its archives and found its history. Westport, CT: Libraries Unlimited.
+Huvila, I. (2008). Participatory archive: towards decentralised curation, radical user orientation, and broader contextualisation of records management. Archival Science, 8(1), 15-36.
+The Mass. Memories Road Show. (2016). The Mass. Memories Road Show Project Handbook: A Planning Guide for Local Communities. Boston, MA: University of Massachusetts Boston, Joseph P. Healey Library.</t>
+  </si>
+  <si>
+    <t>Archival records are used as evidence to defend the freedom, rights, and sovereignty of people around the world, yet lawyers and NGO staff working on human rights cases are not trained to locate, validate or interpret records as evidence. Archivists are experts in records, but they receive little training on how to locate and interpret records to support such uses. This panel will examine ways to educate a new generation of practitioners on how to locate and interpret records to help promote human rights and social justice. It will review potential and existing models and propose one in particular--an archival evidence clinic--inspired in part by the law school legal clinics that have become ubiquitous in the United States since the 1970s. Such a clinic would partner with law school clinics to teach students how to do specialized records searches and allow them gain course credit while getting supervised practical experience. This kind of clinical collaboration would have the added benefit of teaching law students and archival students how to work together on the shared goal of promoting human rights and social justice. The panelists will offer case studies from their own experience using archival records as evidence, to propose possible areas of training for future archival studies students.
 Panelists: Anne Gilliland will speak about different models and pedagogies for preparing archivists, lawyers, NGO personnel, and scholars in locating, collating, assessing and presenting records and other forms of archival evidence in support of human rights actions, especially those that engage diasporas or cross institutional and national jurisdictions, and about her course at UCLA that prepares archival students to use records as evidence. Evan Tucker will speak about using the Freedom of Information Act (FOIA) to find evidence that has been withheld by prosecutors in federal criminal trials. He will also discuss ideas for a model of clinical education in archival studies. Ruth Livier will discuss how archival theory provides a framework and a toolkit through which creative writers can make sense of human rights records as it relates to their creative works. By analyzing her own work of fiction, she will highlight how the theory developed around imagined records might help legitimize this fiction as what it aspires to be: a work of advocacy. María Montenegro will look at the U.S. federal tribal recognition project from a records-centered approach. She will discuss ways in which archivists and the implementation of archival conceptions of evidence can assist Native communities in the processes of locating, using, producing, (re)reading, and interpreting records as evidence for tribal sovereignty practices and purposes. Csaba Szillágyi will speak about his work teaching the course “Archives, Evidence and Human Rights” for students of law and human rights at the Central European University in Hungary.</t>
+  </si>
+  <si>
+    <t>The existing ways of protecting ancient villages in China mainly include commercial development and building repair, which to a certain extent would destroy the villages’ original appearance and culture core. How to protect the original villages in the digital world with the minimum damage or omission? To answer the question, the paper shows a case study of Gao Qian based on the Digital Protection and Inheritance of Historical and Cultural Villages Project in China. Gaoqian was built at the end of the Ming Dynasty with 3,300 villagers, most of whom share a single surname--“Wu”--and are related to each other. The family stories and the whole family tree were recorded in the Genealogy of the Wu Family. There are eight courtyard houses in the village making it one of the most intact residential building complex in southern China. This project analyzes the culture resource system of Gaoqian through archival collection, oral history interviewing and photographing, based on which the digital resource ontology is constructed and the Gaoqian Digital Resource Database is built. In the database, all the data can be long-term preserved and developed into visual products for the public. One hand, the project takes advantage of advanced technologies in the digital humanities, including ontology construction, 3D modeling and panoramic roaming. On the other hand, the project breaks through the limitation of mainstream memory of Gaoqian based on the official archives, trying to reconstruct the more authentic history of Gaoqian from the perspective of the community archives and public history. This paper introduces the basic design and methods of the digital protection and presentation of Gaoqian. It shows a case of the establishment of a digital memorial space for ancient villages beyond the traditional limits of physical protection, in which all the memorial elements including the villagers and their lives, the buildings and their history, and the heritages and their context can be recorded and presented.</t>
+  </si>
+  <si>
+    <t>As we approach the end of the second decade of the 21st century there is increasing pressure on researchers, disciplines and universities to be able to quantify the quality and impact of their research. National and international rankings of university and subject areas and other metrics weigh on the minds of university administrators as they look to compete in a globalised marketplace for research and education. National frameworks for research evaluation have emerged, such as Excellence in Research Australia (ERA), Research Excellence Framework (REF) in the UK, etc. to benchmark and account for public investment in research, and guide research funding allocations. And in promotion, tenure and funding applications academics are asked to provide indicators for use by those outside their discipline to judge the quality and impact of their research.
+However, as Professor James Wilsdon, chair of a 2015 UK Review of the Role of Metrics in Research Assessment and Management, writes:
+'Some of the most precious qualities of academic culture resist simple quantification, and individual indicators can struggle to do justice to the richness and plurality of our research. Too often, poorly designed evaluation criteria are “dominating minds, distorting behaviour and determining careers.”' (Wilsdon et al., 2015).
+In that report the notion of responsible metrics is introduced that are robust, transparent, reflexive, reflect and support diversity and plurality, and work to support (not supplant) qualitative, expert assessment.
+Archival and recordkeeping studies is a rapidly developing, but often poorly understood field within academia and this can make grant applications, promotion and/or tenure reviews, etc. that rely upon such metrics difficult. The AERI Journal Ranking List was developed at the first AERI institute in 2009 to provide our community's own assessment on journal quality and impact for use research quality assessment processes. A decade later, this list needs updating to take account of the increased number of publication venues (e.g., new journals, refereed conference proceedings), English-language bias, and important critiques of simplistic citation metric approaches. In this interactive plenary session we will revisit the AERI Journal Ranking List within the context of a broader discussion of how we might move towards the development of a framework for research quality and impact that will further the growth and development of archival and recordkeeping research, strengthen the placement of the discipline within the Academy, and encourage diversity, innovation and transdisciplinarity in research collaborations.</t>
+  </si>
+  <si>
+    <t>https://github.com/hsoyka/AERI/blob/master/AERI%202018%20meeting%20program.pdf</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1052,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1111,8 +1112,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1147,19 +1152,23 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1499,31 +1508,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="4" width="14.69921875" customWidth="1"/>
-    <col min="5" max="5" width="31.296875" customWidth="1"/>
+    <col min="3" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" customWidth="1"/>
     <col min="6" max="6" width="65" customWidth="1"/>
-    <col min="7" max="7" width="11.69921875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
     <col min="8" max="8" width="13.5" customWidth="1"/>
     <col min="9" max="9" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1538,13 +1547,13 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="202.8" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="221" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>2018001</v>
       </c>
@@ -1555,7 +1564,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
@@ -1564,16 +1573,16 @@
         <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2018002</v>
       </c>
@@ -1590,19 +1599,19 @@
         <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2018003</v>
       </c>
@@ -1610,13 +1619,13 @@
         <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>16</v>
@@ -1625,13 +1634,13 @@
         <v>13</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2018004</v>
       </c>
@@ -1639,13 +1648,13 @@
         <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>16</v>
@@ -1654,21 +1663,21 @@
         <v>13</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>2018005</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -1683,1812 +1692,1817 @@
         <v>13</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="218.4" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="238" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>2018006</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="G7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>2018007</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="G8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>2018008</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="G9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>2018009</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="H10" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="358.8" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="388" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>2018010</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="G11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="327.60000000000002" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="340" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>2018011</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="G12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>2018012</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F13" s="6" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>2018013</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="G14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>2018014</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="G15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>2018015</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>53</v>
+        <v>272</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>2018016</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>2018017</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>60</v>
+        <v>273</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="327.60000000000002" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="356" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>2018018</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="G19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>2018019</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="234" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="255" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>2018020</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="F21" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="G21" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>2018021</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>2018022</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>2018023</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>241</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>2018024</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>2018025</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>2018026</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>2018027</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F28" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>2018028</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>2018029</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>2018030</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="249.6" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="272" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>2018031</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>2018032</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="F33" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>2018033</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="G34" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="405.6" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>2018034</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="G35" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>2018035</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="F36" s="2" t="s">
-        <v>108</v>
+        <v>275</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="390" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="404" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>2018036</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="F37" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="358.8" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="388" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>2018037</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="G38" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="280.8" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="289" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>2018038</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="140.4" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>2018039</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>125</v>
-      </c>
       <c r="G40" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="202.8" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="221" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>2018040</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="G41" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>2018041</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="249.6" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="272" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>2018042</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="280.8" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="306" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>2018043</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="F44" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>2018044</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="G45" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="296.39999999999998" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="323" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>2018045</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="204" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>2018046</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="202.8" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="221" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>2018047</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>2018048</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>2018049</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>2018050</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="234" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="238" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>2018051</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>2018052</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>2018053</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>2018054</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="280.8" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="289" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>2018055</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>2018056</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="390" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="404" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>2018057</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>2018058</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>2018059</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="327.60000000000002" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="340" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>2018060</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="G61" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="249.6" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="272" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>2018061</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>2018062</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="358.8" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="388" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>2018063</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="140.4" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="153" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>2018064</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>2018065</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>2018066</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>2018067</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>220</v>
+        <v>276</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>